--- a/myapp/data/userdata.xlsx
+++ b/myapp/data/userdata.xlsx
@@ -1,124 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\curry\OneDrive\Desktop\datafighter_clone\datafighter\myapp\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0AA911-0CD4-48CA-9E3A-AB1D65030E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2348C5A-2E79-445C-A09D-3F17F6BC6363}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3540" yWindow="2340" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="userdata" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="userdata" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t xml:space="preserve">김승환 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터공학부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네트워크보안전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학적상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육과정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반학사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2학년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -134,28 +52,88 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -475,87 +453,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C9FC36-594D-46AC-AD1A-E80B7AAD48F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col width="11.625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="17.25" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>이름</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>학번</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>학과</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>전공</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>학년</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>학적상태</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>교육과정</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>학생구분</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2021136024</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>2021</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>승환</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>2021137323</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>컴공학과</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>컴공전공</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>3학년</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>휴학</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>일반학사</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE850D96-5ACF-4267-B0DA-7A56CEAFE182}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/myapp/data/userdata.xlsx
+++ b/myapp/data/userdata.xlsx
@@ -516,12 +516,12 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>승환</t>
+          <t>예림</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>2021137323</t>
+          <t>2023100313</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
@@ -531,12 +531,12 @@
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>컴공전공</t>
+          <t>연극영화</t>
         </is>
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>3학년</t>
+          <t>2학년</t>
         </is>
       </c>
       <c r="F2" s="0" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="H2" s="0" t="inlineStr">
